--- a/BRADx-DeckComponentsTestChecklist.xlsx
+++ b/BRADx-DeckComponentsTestChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biorad-my.sharepoint.com/personal/u112958_global_bio-rad_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{EAF3E9D4-0474-4EAF-AE91-1E9343FCBFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B527106-668F-4B8B-9D67-D745773D10A1}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{EAF3E9D4-0474-4EAF-AE91-1E9343FCBFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2AE2281-5227-42A6-8A28-18F7F4CC14A3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D82362C5-2AC3-4218-883C-CD270235C32A}"/>
   </bookViews>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC161202-00BF-4922-8E9C-49817633798B}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,7 +1093,7 @@
       <c r="B44" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -1102,7 +1102,7 @@
       <c r="B45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -1111,7 +1111,7 @@
       <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -1120,7 +1120,7 @@
       <c r="B47" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
